--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="256">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -34,15 +34,698 @@
     <t xml:space="preserve">label::en</t>
   </si>
   <si>
+    <t xml:space="preserve">label::sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appearance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint_message::en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint_message::hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint_message::id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint_message::sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint_message::ne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint_message::es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint_message::fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint::en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint::hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint::id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint::sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint::ne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint::es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint::fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media::image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instance::tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cht::notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./source = 'user'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visitType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db:clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the patient's name?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db-object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chw_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/contact/name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visit_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/visitType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one yes_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wire_mesh_on_inlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does ${place_name}'s household have wire mesh on the windows/inlets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recommend_wiremesh_inlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putting wire mesh on windows and other inlets help to reduce the entry of mosquitoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘no’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many people sleep in ${place_name}'s household?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${visit_type} != ’follow_up’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nets_availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does ${place_name}'s household have nets ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_of_nets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many nets does ${place_name}'s household have?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${nets_availability}, ‘yes’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teach_on_net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teach that personal protection measures such as sleeping under a net protects one against mosquito bites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${nets_availability}, ‘no’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repellant_usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does ${place_name} household use repellents?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resedual_spraying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has ${place_name} done Indoor Residual Spraying in the last 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proper_drainage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does ${place_name} household area have good drainage systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stagnant_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does ${place_name} household area have stagnant water?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teach_on_stagnant_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teach that stagnant water is a breeding site for mosquitoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${stagnant_water},’yes’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tall_grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does ${place_name} household area have tall grass?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teach_on_tall_grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teach that because grass provides a great cover from the heat of the sun and protection from wind that can blow them away, mosquitoes like to rest in tall grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${tall_grass}, ‘yes’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amendment_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When will they have implemented the recommended measures?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘no’) or selected(${nets_availability}, ‘no’) or selected(${stagnant_water}, ‘yes’) or selected(${tall_grass}, ‘yes’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Be sure you Submit to complete this action.**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakikisha unawasilisha ili kumalizia hatua hii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Information&lt;i class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taarifa za Kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">**${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">place_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}**</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">h5 center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_finding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings&lt;i class="fa fa-plus-square"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ripoti ya ziara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 blue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">r_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">wire_mesh_on_inlets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Has installed wire mesh:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${wire_mesh_on_inlets}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">r_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">nets_availability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Has mosquito nets : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">nets_availability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">r_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">tall_grass</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Has cut long grass surrounding the area : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">tall_grass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">r_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">repellant_usage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Have repellents :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">repellant_usage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">r_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">proper_drainage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Has drained nearby pools of water : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${proper_drainage}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">r_amendment_date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Follow up on : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${amendment_date}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">list_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">label::hi</t>
   </si>
   <si>
     <t xml:space="preserve">label::id</t>
   </si>
   <si>
-    <t xml:space="preserve">label::sw</t>
-  </si>
-  <si>
     <t xml:space="preserve">label::ne</t>
   </si>
   <si>
@@ -50,330 +733,6 @@
   </si>
   <si>
     <t xml:space="preserve">label::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">media::image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance::tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repeat_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cht::notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./source = 'user'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visitType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visit Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db:clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the patient's name?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db-object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visit_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/visitType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household Assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wire_mesh_on_inlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does ${place_name}'s household does have wire mesh on the windows/inlets?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recommend_wiremesh_inlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Putting wire mesh on windows and other inlets help to reduce the entry of mosquitoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘no’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many people sleep in ${place_name}'s household?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${visit_type} != ’follow_up’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nets_availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does ${place_name}'s household have nets ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_of_nets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many nets does ${place_name}'s household have?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${nets_availability}, ‘yes’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teach_on_net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teach that personal protection measures such as sleeping under a net protects one against mosquito bites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${nets_availability}, ‘no’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repellant_usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does ${place_name} household use repellents?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resedual_spraying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has ${place_name} done Indoor Residual Spraying in the last 12 months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proper_drainage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does ${place_name} household area have good drainage systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stagnant_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does ${place_name} household area have stagnant water?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teach_on_stagnant_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teach that stagnant water is a breeding site for mosquitoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${stagnant_water},’yes’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tall_grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does ${place_name} household area have tall grass?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teach_on_tall_grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teach that because grass provides a great cover from the heat of the sun and protection from wind that can blow them away, mosquitoes like to rest in tall grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${tall_grass}, ‘yes’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amendment_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When will they have implemented the recommended measures?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘no’) or selected(${nets_availability}, ‘no’) or selected(${stagnant_water}, ‘yes’) or selected(${tall_grass}, ‘yes’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional_notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_name</t>
   </si>
   <si>
     <t xml:space="preserve">yes_no</t>
@@ -714,7 +1073,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -758,6 +1117,54 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF548135"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -786,15 +1193,8 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,6 +1245,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE598"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
@@ -857,12 +1281,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
@@ -871,12 +1289,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -914,7 +1326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -955,47 +1367,111 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1003,7 +1479,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1011,19 +1487,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1043,13 +1519,13 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFF3F3F3"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF548135"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFD9D9D9"/>
@@ -1073,10 +1549,10 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFEFEFEF"/>
       <rgbColor rgb="FFD9EAD3"/>
+      <rgbColor rgb="FFFFE598"/>
+      <rgbColor rgb="FFBDD6EE"/>
       <rgbColor rgb="FFFCE5CD"/>
       <rgbColor rgb="FFD0E0E3"/>
-      <rgbColor rgb="FFF3F3F3"/>
-      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF4CCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -1100,39 +1576,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ1048576"/>
+  <dimension ref="A1:AE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U20" activeCellId="0" sqref="U20"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="4" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="51.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="15" style="1" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="73.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="30"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="24" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="31" style="1" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="72.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="53.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="32.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="10" style="1" width="25.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="73.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="30.02"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="24" min="19" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="26" style="1" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1223,47 +1696,32 @@
       <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1283,21 +1741,16 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1320,30 +1773,25 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="Y3" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1373,21 +1821,16 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1417,21 +1860,16 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1461,33 +1899,28 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1507,21 +1940,16 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1551,21 +1979,16 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1595,21 +2018,16 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1639,21 +2057,16 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1683,21 +2096,16 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1727,21 +2135,16 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1771,21 +2174,16 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1815,18 +2213,13 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1857,18 +2250,13 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1899,18 +2287,13 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1941,30 +2324,25 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1985,18 +2363,13 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2027,21 +2400,16 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2055,55 +2423,50 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="P20" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
+      <c r="AA20" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
-      <c r="AF20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2117,41 +2480,36 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="P22" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
+      <c r="AA22" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
-      <c r="AF22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -2165,14 +2523,14 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="P23" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
@@ -2183,34 +2541,29 @@
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2230,31 +2583,26 @@
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -2276,32 +2624,27 @@
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -2322,34 +2665,29 @@
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -2370,31 +2708,26 @@
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2416,34 +2749,29 @@
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -2464,32 +2792,27 @@
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -2510,31 +2833,26 @@
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -2556,31 +2874,26 @@
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
       <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -2602,31 +2915,26 @@
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -2648,31 +2956,26 @@
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -2694,32 +2997,27 @@
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -2740,31 +3038,26 @@
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
@@ -2786,32 +3079,27 @@
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2832,34 +3120,29 @@
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -2880,31 +3163,26 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
@@ -2926,15 +3204,10 @@
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
       <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="9"/>
-      <c r="AJ40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -2966,110 +3239,590 @@
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
       <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="0"/>
+      <c r="AD42" s="0"/>
+      <c r="AE42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="0"/>
+      <c r="AD43" s="0"/>
+      <c r="AE43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="0"/>
+      <c r="AD44" s="0"/>
+      <c r="AE44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="0"/>
+      <c r="AD45" s="0"/>
+      <c r="AE45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="0"/>
+      <c r="AD46" s="0"/>
+      <c r="AE46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="0"/>
+      <c r="AD47" s="0"/>
+      <c r="AE47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="0"/>
+      <c r="AD48" s="0"/>
+      <c r="AE48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="0"/>
+      <c r="AD49" s="0"/>
+      <c r="AE49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="0"/>
+      <c r="AD50" s="0"/>
+      <c r="AE50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="0"/>
+      <c r="AD51" s="0"/>
+      <c r="AE51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="0"/>
+      <c r="AD52" s="0"/>
+      <c r="AE52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="0"/>
+      <c r="AD53" s="0"/>
+      <c r="AE53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="0"/>
+      <c r="AD54" s="0"/>
+      <c r="AE54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="26"/>
+      <c r="X55" s="26"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="26"/>
+      <c r="AA55" s="26"/>
+      <c r="AB55" s="26"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="26"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J49" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E41" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3078,7 +3831,7 @@
     <hyperlink ref="A7" r:id="rId1" display="db:clinic"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -3088,7 +3841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3100,137 +3853,137 @@
       <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="1" width="45.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="G1" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
+      <c r="A2" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="A3" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3297,7 +4050,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -3307,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3319,99 +4072,99 @@
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="A1" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="24" t="n">
+      <c r="A2" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="40" t="n">
         <f aca="true">NOW()</f>
-        <v>45073.4864319792</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
+        <v>45085.5229603257</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -3421,7 +4174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3433,1128 +4186,1128 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="1" width="45.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="G1" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="A2" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="A3" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
+      <c r="A5" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
+      <c r="A6" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
+      <c r="A7" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
+      <c r="A8" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
+      <c r="A9" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
+      <c r="A11" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
+      <c r="A12" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B34" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B35" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C35, "(", ""), ")", "")), " ", "_")</f>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B36" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C36, "(", ""), ")", "")), " ", "_")</f>
         <v>injectibles</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B37" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C37, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B38" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C38, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B39" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C39, "(", ""), ")", "")), " ", "_")</f>
         <v>iud</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B40" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C40, "(", ""), ")", "")), " ", "_")</f>
         <v>condoms</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B41" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C41, "(", ""), ")", "")), " ", "_")</f>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B42" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C42, "(", ""), ")", "")), " ", "_")</f>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4565,26 +5318,26 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="B45" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C45, "(", ""), ")", "")), " ", "_")</f>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="B46" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C46, "(", ""), ")", "")), " ", "_")</f>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4594,290 +5347,290 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
+      <c r="A48" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
+      <c r="A49" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>202</v>
+      <c r="A58" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>204</v>
+      <c r="A59" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>206</v>
+      <c r="A60" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>167</v>
+      <c r="A61" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>209</v>
+      <c r="A63" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>211</v>
+      <c r="A64" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>213</v>
+      <c r="A65" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>215</v>
+      <c r="A66" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>217</v>
+      <c r="A67" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>182</v>
+        <v>253</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5808,7 +6561,7 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
@@ -1100,21 +1100,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U20" activeCellId="0" sqref="U20"/>
+      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="M42" activeCellId="0" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.29"/>
@@ -1128,9 +1128,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="37.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="15" style="1" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="15" style="1" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="73.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="30.01"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="24" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="31" style="1" width="29.86"/>
   </cols>
@@ -3021,13 +3021,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3069,7 +3063,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J49" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J48" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3078,7 +3072,7 @@
     <hyperlink ref="A7" r:id="rId1" display="db:clinic"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -3088,7 +3082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3100,9 +3094,9 @@
       <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="1" width="45.84"/>
   </cols>
   <sheetData>
@@ -3297,7 +3291,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -3307,7 +3301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3319,10 +3313,10 @@
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.57"/>
   </cols>
   <sheetData>
@@ -3377,7 +3371,7 @@
       </c>
       <c r="C2" s="24" t="n">
         <f aca="true">NOW()</f>
-        <v>45073.4864319792</v>
+        <v>45099.6968149922</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>127</v>
@@ -3411,7 +3405,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -3421,7 +3415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3433,9 +3427,9 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="1" width="45.84"/>
   </cols>
   <sheetData>
@@ -5808,7 +5802,7 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="229">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -235,6 +235,12 @@
     <t xml:space="preserve">../inputs/visitType</t>
   </si>
   <si>
+    <t xml:space="preserve">malaria_prone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../household_assessment/wire_mesh_on_inlets = 'yes' or ../household_assessment/stagnant_water = 'yes' or ../household_assessment/nets_availability = 'no' or ../household_assessment/proper_drainage = 'no' or ../household_assessment/resedual_spraying = 'no' or ../household_assessment/tall_grass = 'yes'</t>
+  </si>
+  <si>
     <t xml:space="preserve">household_assessment</t>
   </si>
   <si>
@@ -247,7 +253,7 @@
     <t xml:space="preserve">wire_mesh_on_inlets</t>
   </si>
   <si>
-    <t xml:space="preserve">Does ${place_name}'s household does have wire mesh on the windows/inlets?</t>
+    <t xml:space="preserve">Does ${place_name}'s household have wire mesh on the windows/inlets?</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -1107,14 +1113,14 @@
   <dimension ref="A1:AJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
-      <selection pane="bottomRight" activeCell="M42" activeCellId="0" sqref="M42"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.29"/>
@@ -1130,7 +1136,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="15" style="1" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="73.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="30.02"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="24" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="31" style="1" width="29.86"/>
   </cols>
@@ -2189,62 +2195,62 @@
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="8" t="s">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-    </row>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -2252,11 +2258,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2284,13 +2290,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -2298,10 +2304,10 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="J27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -2330,13 +2336,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2344,11 +2350,9 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="J28" s="9"/>
       <c r="K28" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -2378,13 +2382,13 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2393,9 +2397,11 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -2424,7 +2430,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>86</v>
@@ -2439,11 +2445,9 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -2472,13 +2476,13 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2486,9 +2490,11 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="J31" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="K31" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -2518,13 +2524,13 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2532,10 +2538,10 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -2564,7 +2570,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>94</v>
@@ -2579,7 +2585,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -2610,7 +2616,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>96</v>
@@ -2625,7 +2631,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -2656,7 +2662,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>98</v>
@@ -2671,7 +2677,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -2702,7 +2708,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>100</v>
@@ -2716,10 +2722,10 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="J36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -2748,13 +2754,13 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2762,10 +2768,10 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -2794,7 +2800,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>105</v>
@@ -2808,10 +2814,10 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="J38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2838,15 +2844,15 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2854,11 +2860,9 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
@@ -2886,15 +2890,15 @@
       <c r="AI39" s="9"/>
       <c r="AJ39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2903,9 +2907,11 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K40" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -2934,17 +2940,23 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="J41" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
@@ -2973,11 +2985,44 @@
       <c r="AJ41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10"/>
@@ -3021,8 +3066,20 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
     <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3063,7 +3120,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J48" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J50" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3094,7 +3151,7 @@
       <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="1" width="45.84"/>
@@ -3102,7 +3159,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -3144,13 +3201,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -3174,13 +3231,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>115</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -3313,7 +3370,7 @@
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.95"/>
@@ -3322,25 +3379,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -3364,24 +3421,24 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="24" t="n">
         <f aca="true">NOW()</f>
-        <v>45099.6968149922</v>
+        <v>45118.7153981506</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -3427,7 +3484,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="1" width="45.84"/>
@@ -3435,7 +3492,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -3478,13 +3535,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -3509,13 +3566,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>115</v>
-      </c>
       <c r="C3" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -3565,13 +3622,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -3596,13 +3653,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -3627,13 +3684,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -3658,13 +3715,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -3689,13 +3746,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -3745,13 +3802,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -3776,13 +3833,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -3807,13 +3864,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -3838,13 +3895,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -3869,13 +3926,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -3900,13 +3957,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -3956,13 +4013,13 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -3987,13 +4044,13 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -4018,13 +4075,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -4049,13 +4106,13 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -4080,13 +4137,13 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>152</v>
-      </c>
       <c r="C22" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -4111,13 +4168,13 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -4167,13 +4224,13 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -4198,13 +4255,13 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -4229,13 +4286,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -4260,13 +4317,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -4291,13 +4348,13 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -4347,13 +4404,13 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -4378,13 +4435,13 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
@@ -4434,121 +4491,121 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B34" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B35" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C35, "(", ""), ")", "")), " ", "_")</f>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B36" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C36, "(", ""), ")", "")), " ", "_")</f>
         <v>injectibles</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B37" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C37, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B38" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C38, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B39" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C39, "(", ""), ")", "")), " ", "_")</f>
         <v>iud</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B40" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C40, "(", ""), ")", "")), " ", "_")</f>
         <v>condoms</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B41" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C41, "(", ""), ")", "")), " ", "_")</f>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C42, "(", ""), ")", "")), " ", "_")</f>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4559,26 +4616,26 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B45" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C45, "(", ""), ")", "")), " ", "_")</f>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C46, "(", ""), ")", "")), " ", "_")</f>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4589,13 +4646,13 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
@@ -4620,13 +4677,13 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
@@ -4652,226 +4709,226 @@
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="263">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -241,6 +241,15 @@
     <t xml:space="preserve">../household_assessment/wire_mesh_on_inlets = 'yes' or ../household_assessment/stagnant_water = 'yes' or ../household_assessment/nets_availability = 'no' or ../household_assessment/proper_drainage = 'no' or ../household_assessment/resedual_spraying = 'no' or ../household_assessment/tall_grass = 'yes'</t>
   </si>
   <si>
+    <t xml:space="preserve">referral_follow_up_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date-time(decimal-date-time(today()) + 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../household_assessment/amendment_date</t>
+  </si>
+  <si>
     <t xml:space="preserve">household_assessment</t>
   </si>
   <si>
@@ -253,7 +262,7 @@
     <t xml:space="preserve">wire_mesh_on_inlets</t>
   </si>
   <si>
-    <t xml:space="preserve">Does ${place_name}'s household have wire mesh on the windows/inlets?</t>
+    <t xml:space="preserve">Does ${place_name} have wire mesh on the windows/inlets?</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -277,22 +286,28 @@
     <t xml:space="preserve">household_members</t>
   </si>
   <si>
-    <t xml:space="preserve">How many people sleep in ${place_name}'s household?</t>
+    <t xml:space="preserve">How many people sleep in ${place_name}?</t>
   </si>
   <si>
     <t xml:space="preserve">${visit_type} != ’follow_up’</t>
   </si>
   <si>
+    <t xml:space="preserve">. &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative numbers are not allowed</t>
+  </si>
+  <si>
     <t xml:space="preserve">nets_availability</t>
   </si>
   <si>
-    <t xml:space="preserve">Does ${place_name}'s household have nets ?</t>
+    <t xml:space="preserve">Does ${place_name} have nets ?</t>
   </si>
   <si>
     <t xml:space="preserve">number_of_nets</t>
   </si>
   <si>
-    <t xml:space="preserve">How many nets does ${place_name}'s household have?</t>
+    <t xml:space="preserve">How many nets does ${place_name} have?</t>
   </si>
   <si>
     <t xml:space="preserve">selected(${nets_availability}, ‘yes’)</t>
@@ -310,7 +325,7 @@
     <t xml:space="preserve">repellant_usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Does ${place_name} household use repellents?</t>
+    <t xml:space="preserve">Does ${place_name} use repellents?</t>
   </si>
   <si>
     <t xml:space="preserve">resedual_spraying</t>
@@ -322,13 +337,13 @@
     <t xml:space="preserve">proper_drainage</t>
   </si>
   <si>
-    <t xml:space="preserve">Does ${place_name} household area have good drainage systems</t>
+    <t xml:space="preserve">Does ${place_name} area have good drainage systems</t>
   </si>
   <si>
     <t xml:space="preserve">stagnant_water</t>
   </si>
   <si>
-    <t xml:space="preserve">Does ${place_name} household area have stagnant water?</t>
+    <t xml:space="preserve">Does ${place_name} area have stagnant water?</t>
   </si>
   <si>
     <t xml:space="preserve">teach_on_stagnant_water</t>
@@ -343,7 +358,7 @@
     <t xml:space="preserve">tall_grass</t>
   </si>
   <si>
-    <t xml:space="preserve">Does ${place_name} household area have tall grass?</t>
+    <t xml:space="preserve">Does ${place_name} area have tall grass?</t>
   </si>
   <si>
     <t xml:space="preserve">teach_on_tall_grass</t>
@@ -367,6 +382,9 @@
     <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘no’) or selected(${nets_availability}, ‘no’) or selected(${stagnant_water}, ‘yes’) or selected(${tall_grass}, ‘yes’)</t>
   </si>
   <si>
+    <t xml:space="preserve">. &gt; today() - 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
@@ -377,6 +395,138 @@
   </si>
   <si>
     <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list summary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">r_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">action</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Submit button at the bottom of form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h5 center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taarifa za Kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_hh_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Details&lt;i class="fa fa-plus-square"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ripoti ya ziara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${place_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_not_prone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${place_name} is not prone to malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘yes’) and selected(${nets_availability}, ‘yes’) and selected(${tall_grass}, ‘yes’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_prone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${place_name} is prone to malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘no’) or selected(${nets_availability}, ‘no’) or selected(${tall_grass}, ‘no’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h5 center red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_findings_followup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow up Task &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_task</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Follow up task will appear in 3 days before ${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">amendment_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -720,7 +870,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -764,6 +914,38 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -792,15 +974,8 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,6 +1026,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE598"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
@@ -863,12 +1062,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
@@ -877,12 +1070,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -920,7 +1107,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -953,6 +1140,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -965,35 +1172,115 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1001,35 +1288,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1049,7 +1308,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFF3F3F3"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1079,10 +1338,10 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFEFEFEF"/>
       <rgbColor rgb="FFD9EAD3"/>
+      <rgbColor rgb="FFFFE598"/>
+      <rgbColor rgb="FFBDD6EE"/>
       <rgbColor rgb="FFFCE5CD"/>
       <rgbColor rgb="FFD0E0E3"/>
-      <rgbColor rgb="FFF3F3F3"/>
-      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF4CCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -1113,20 +1372,21 @@
   <dimension ref="A1:AJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="4" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="102.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="72.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="105.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="51.32"/>
@@ -1137,7 +1397,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="15" style="1" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="73.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="30.02"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="24" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="24" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="31" style="1" width="29.86"/>
   </cols>
   <sheetData>
@@ -2241,846 +2501,1102 @@
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9" t="s">
+      <c r="B27" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="14"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+    </row>
+    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="14"/>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9" t="s">
+      <c r="D47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="9"/>
-      <c r="AJ40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+      <c r="B48" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
-      <c r="AJ42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="17"/>
+    </row>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3119,8 +3635,16 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J50" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J24 J26:J44" type="list">
+      <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A25" type="list">
+      <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J25" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3151,137 +3675,137 @@
       <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="1" width="45.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
+      <c r="A2" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="A3" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3370,7 +3894,7 @@
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.95"/>
@@ -3378,87 +3902,87 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="A1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="24" t="n">
+      <c r="A2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="42" t="n">
         <f aca="true">NOW()</f>
-        <v>45118.7153981506</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
+        <v>45218.3326109671</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3484,1128 +4008,1128 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="1" width="45.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="A2" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="A3" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
+      <c r="A5" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
+      <c r="A6" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
+      <c r="A7" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
+      <c r="A8" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
+      <c r="A9" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
+      <c r="A11" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
+      <c r="A12" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
+      <c r="A13" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
+      <c r="A14" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="A15" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B34" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B35" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C35, "(", ""), ")", "")), " ", "_")</f>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B36" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C36, "(", ""), ")", "")), " ", "_")</f>
         <v>injectibles</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B37" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C37, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B38" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C38, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B39" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C39, "(", ""), ")", "")), " ", "_")</f>
         <v>iud</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B40" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C40, "(", ""), ")", "")), " ", "_")</f>
         <v>condoms</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B41" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C41, "(", ""), ")", "")), " ", "_")</f>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B42" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C42, "(", ""), ")", "")), " ", "_")</f>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4616,26 +5140,26 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="B45" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C45, "(", ""), ")", "")), " ", "_")</f>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="B46" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C46, "(", ""), ")", "")), " ", "_")</f>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4645,290 +5169,290 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
+      <c r="A48" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
+      <c r="A49" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="C61" s="38" t="s">
         <v>203</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>211</v>
+      <c r="A63" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>213</v>
+      <c r="A64" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>215</v>
+      <c r="A65" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>217</v>
+      <c r="A66" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>219</v>
+      <c r="A67" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>184</v>
+        <v>260</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="264">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -379,7 +379,7 @@
     <t xml:space="preserve">When will they have implemented the recommended measures?</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘no’) or selected(${nets_availability}, ‘no’) or selected(${stagnant_water}, ‘yes’) or selected(${tall_grass}, ‘yes’)</t>
+    <t xml:space="preserve">${malaria_prone} = ‘true’</t>
   </si>
   <si>
     <t xml:space="preserve">. &gt; today() - 1</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">${place_name} is not prone to malaria</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘yes’) and selected(${nets_availability}, ‘yes’) and selected(${tall_grass}, ‘yes’)</t>
+    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘yes’) and selected(${nets_availability}, ‘yes’) and selected(${tall_grass}, ‘yes’) and selected(${stagnant_water}, no)</t>
   </si>
   <si>
     <t xml:space="preserve">r_prone</t>
@@ -482,16 +482,19 @@
     <t xml:space="preserve">${place_name} is prone to malaria</t>
   </si>
   <si>
+    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘no’) or selected(${nets_availability}, ‘no’) or selected(${tall_grass}, ‘no’) or selected(${stagnant_water}, ‘yes’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h5 center red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_findings_followup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow up Task &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘no’) or selected(${nets_availability}, ‘no’) or selected(${tall_grass}, ‘no’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h5 center red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_findings_followup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow up Task &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">r_task</t>
@@ -1372,14 +1375,14 @@
   <dimension ref="A1:AJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="I44" activeCellId="0" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.29"/>
@@ -3513,7 +3516,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
         <v>81</v>
       </c>
@@ -3555,7 +3558,7 @@
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L53" s="17" t="s">
         <v>140</v>
@@ -3566,10 +3569,10 @@
         <v>81</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
@@ -3675,7 +3678,7 @@
       <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="1" width="45.84"/>
@@ -3683,7 +3686,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -3725,13 +3728,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -3755,13 +3758,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -3894,7 +3897,7 @@
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.95"/>
@@ -3903,25 +3906,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
@@ -3952,17 +3955,17 @@
       </c>
       <c r="C2" s="42" t="n">
         <f aca="true">NOW()</f>
-        <v>45218.3326109671</v>
+        <v>45253.4451292648</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F2" s="37"/>
       <c r="G2" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
@@ -4008,7 +4011,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="1" width="45.84"/>
@@ -4016,7 +4019,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -4059,13 +4062,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -4090,13 +4093,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -4146,13 +4149,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -4177,13 +4180,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
@@ -4208,13 +4211,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -4239,13 +4242,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
@@ -4270,13 +4273,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
@@ -4326,13 +4329,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -4357,13 +4360,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
@@ -4388,13 +4391,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
@@ -4419,13 +4422,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
@@ -4450,13 +4453,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
@@ -4481,13 +4484,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
@@ -4537,13 +4540,13 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
@@ -4568,13 +4571,13 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
@@ -4599,13 +4602,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
@@ -4630,13 +4633,13 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
@@ -4661,13 +4664,13 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>190</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>189</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
@@ -4692,13 +4695,13 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -4748,13 +4751,13 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -4779,13 +4782,13 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -4810,13 +4813,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -4841,13 +4844,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
@@ -4872,13 +4875,13 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -4928,13 +4931,13 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -4959,13 +4962,13 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -5015,121 +5018,121 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B35" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C35, "(", ""), ")", "")), " ", "_")</f>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B36" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C36, "(", ""), ")", "")), " ", "_")</f>
         <v>injectibles</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B37" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C37, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B38" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C38, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B39" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C39, "(", ""), ")", "")), " ", "_")</f>
         <v>iud</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B40" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C40, "(", ""), ")", "")), " ", "_")</f>
         <v>condoms</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C41, "(", ""), ")", "")), " ", "_")</f>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B42" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C42, "(", ""), ")", "")), " ", "_")</f>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5140,26 +5143,26 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B45" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C45, "(", ""), ")", "")), " ", "_")</f>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B46" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C46, "(", ""), ")", "")), " ", "_")</f>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5170,13 +5173,13 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
@@ -5201,13 +5204,13 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D49" s="38"/>
       <c r="E49" s="38"/>
@@ -5233,226 +5236,226 @@
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assessment.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="263">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">malaria_prone</t>
   </si>
   <si>
-    <t xml:space="preserve">../household_assessment/wire_mesh_on_inlets = 'yes' or ../household_assessment/stagnant_water = 'yes' or ../household_assessment/nets_availability = 'no' or ../household_assessment/proper_drainage = 'no' or ../household_assessment/resedual_spraying = 'no' or ../household_assessment/tall_grass = 'yes'</t>
+    <t xml:space="preserve">../household_assessment/wire_mesh_on_inlets = 'no' or ../household_assessment/stagnant_water = 'yes' or ../household_assessment/nets_availability = 'no' or ../household_assessment/proper_drainage = 'no' or ../household_assessment/resedual_spraying = 'no' or ../household_assessment/tall_grass = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">referral_follow_up_date</t>
@@ -473,16 +473,13 @@
     <t xml:space="preserve">${place_name} is not prone to malaria</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘yes’) and selected(${nets_availability}, ‘yes’) and selected(${tall_grass}, ‘yes’) and selected(${stagnant_water}, no)</t>
+    <t xml:space="preserve">${malaria_prone} = ‘false’ </t>
   </si>
   <si>
     <t xml:space="preserve">r_prone</t>
   </si>
   <si>
     <t xml:space="preserve">${place_name} is prone to malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${wire_mesh_on_inlets}, ‘no’) or selected(${nets_availability}, ‘no’) or selected(${tall_grass}, ‘no’) or selected(${stagnant_water}, ‘yes’)</t>
   </si>
   <si>
     <t xml:space="preserve">h5 center red</t>
@@ -873,7 +870,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -947,6 +944,11 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1110,7 +1112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1223,39 +1225,55 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1263,27 +1281,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1291,7 +1297,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1375,14 +1381,14 @@
   <dimension ref="A1:AJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="I44" activeCellId="0" sqref="I44"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="K52" activeCellId="0" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.29"/>
@@ -3516,7 +3522,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
         <v>81</v>
       </c>
@@ -3533,11 +3539,11 @@
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="27" t="s">
+      <c r="K52" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L52" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="L52" s="17" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,10 +3551,10 @@
         <v>81</v>
       </c>
       <c r="B53" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -3558,7 +3564,7 @@
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L53" s="17" t="s">
         <v>140</v>
@@ -3569,10 +3575,10 @@
         <v>81</v>
       </c>
       <c r="B54" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>152</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
@@ -3594,8 +3600,8 @@
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
       <c r="J55" s="25"/>
       <c r="K55" s="22"/>
       <c r="L55" s="17"/>
@@ -3678,137 +3684,137 @@
       <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="1" width="45.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
+      <c r="B2" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3897,7 +3903,7 @@
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.95"/>
@@ -3905,87 +3911,87 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="43" t="n">
+        <f aca="true">NOW()</f>
+        <v>45273.6882797617</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="42" t="n">
-        <f aca="true">NOW()</f>
-        <v>45253.4451292648</v>
-      </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4011,1128 +4017,1128 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="1" width="45.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="B2" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="39" t="s">
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" s="39" t="s">
+      <c r="B32" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C32" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B34" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B35" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C35, "(", ""), ")", "")), " ", "_")</f>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C36, "(", ""), ")", "")), " ", "_")</f>
         <v>injectibles</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B37" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C37, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B38" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C38, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C39, "(", ""), ")", "")), " ", "_")</f>
         <v>iud</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C40, "(", ""), ")", "")), " ", "_")</f>
         <v>condoms</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B41" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C41, "(", ""), ")", "")), " ", "_")</f>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B42" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C42, "(", ""), ")", "")), " ", "_")</f>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5143,26 +5149,26 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C45, "(", ""), ")", "")), " ", "_")</f>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B46" s="1" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C46, "(", ""), ")", "")), " ", "_")</f>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5172,290 +5178,290 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="C48" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="B49" s="38" t="s">
+      <c r="C49" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="C49" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="C58" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="38" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" s="39" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" s="38" t="s">
+      <c r="C59" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="38" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="39" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B60" s="38" t="s">
+      <c r="C60" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C60" s="38" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B61" s="38" t="s">
+      <c r="A61" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="39" t="s">
         <v>203</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="C63" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="38" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" s="38" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B64" s="37" t="s">
+      <c r="C64" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="38" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" s="38" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B65" s="37" t="s">
+      <c r="C65" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C65" s="38" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" s="38" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B66" s="37" t="s">
+      <c r="C66" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="C66" s="38" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" s="38" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B67" s="37" t="s">
+      <c r="C67" s="39" t="s">
         <v>253</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C72" s="45" t="s">
-        <v>219</v>
+      <c r="C72" s="46" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
